--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1958.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1958.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.001*"exchange" + 0.001*"import" + 0.001*"export" + 0.001*"foreign" + 0.001*"country" + 0.001*"payment" + 0.001*"bank" + 0.001*"account" + 0.001*"currency" + 0.001*"per"</t>
-  </si>
-  <si>
-    <t>0.015*"import" + 0.014*"exchange" + 0.012*"foreign" + 0.011*"bank" + 0.011*"payment" + 0.010*"country" + 0.010*"account" + 0.009*"may" + 0.009*"export" + 0.009*"currency"</t>
-  </si>
-  <si>
-    <t>0.023*"exchange" + 0.022*"import" + 0.016*"export" + 0.016*"payment" + 0.015*"account" + 0.014*"may" + 0.013*"country" + 0.013*"currency" + 0.013*"rate" + 0.013*"per"</t>
-  </si>
-  <si>
-    <t>0.001*"exchange" + 0.001*"currency" + 0.001*"import" + 0.001*"may" + 0.000*"payment" + 0.000*"foreign" + 0.000*"export" + 0.000*"account" + 0.000*"country" + 0.000*"bank"</t>
-  </si>
-  <si>
-    <t>0.002*"exchange" + 0.002*"import" + 0.001*"export" + 0.001*"payment" + 0.001*"bank" + 0.001*"may" + 0.001*"account" + 0.001*"country" + 0.001*"currency" + 0.001*"foreign"</t>
+    <t>0.039*"exchange" + 0.028*"free" + 0.028*"market" + 0.028*"bank" + 0.027*"capital" + 0.024*"foreign" + 0.020*"rate" + 0.019*"may" + 0.018*"sell" + 0.016*"franc"</t>
+  </si>
+  <si>
+    <t>0.053*"account" + 0.051*"per" + 0.037*"rate" + 0.030*"dollar" + 0.030*"cent" + 0.026*"country" + 0.021*"exchange" + 0.016*"currency" + 0.015*"u" + 0.013*"nonresident"</t>
+  </si>
+  <si>
+    <t>0.033*"foreign" + 0.030*"exchange" + 0.017*"change" + 0.017*"investment" + 0.016*"control" + 0.015*"united" + 0.013*"kingdom" + 0.012*"republic" + 0.012*"capital" + 0.011*"may"</t>
+  </si>
+  <si>
+    <t>0.070*"import" + 0.041*"payment" + 0.033*"license" + 0.019*"may" + 0.019*"exchange" + 0.018*"currency" + 0.016*"good" + 0.016*"make" + 0.013*"require" + 0.012*"subject"</t>
+  </si>
+  <si>
+    <t>0.083*"export" + 0.045*"fund" + 0.042*"monetary" + 0.035*"international" + 0.030*"proceeds" + 0.023*"area" + 0.022*"agreement" + 0.022*"sterling" + 0.014*"payment" + 0.014*"country"</t>
   </si>
 </sst>
 </file>
